--- a/public/files/file_examples/repair_layer_example.xlsx
+++ b/public/files/file_examples/repair_layer_example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="454" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>Розпорядник бюджетних коштів</t>
   </si>
@@ -56,9 +56,6 @@
     <t>ID закупівлі</t>
   </si>
   <si>
-    <t>ID закупівлі внутрішнє</t>
-  </si>
-  <si>
     <t>Виконавець</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>UA-2016-08-25-000251-c</t>
   </si>
   <si>
-    <t>d9c1ecee2eb94c9db24b7f7a6178ce68</t>
-  </si>
-  <si>
     <t>Сумський ВКП ДПІ "Укрдіпродор"</t>
   </si>
   <si>
@@ -147,9 +141,6 @@
   </si>
   <si>
     <t>ДП "Укрдержбудекспертиза" у Сумській області</t>
-  </si>
-  <si>
-    <t> </t>
   </si>
 </sst>
 </file>
@@ -166,7 +157,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -189,23 +179,20 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,7 +201,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC00"/>
+        <fgColor rgb="FF99CC66"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
@@ -266,7 +259,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -287,6 +280,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -299,7 +296,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -312,32 +309,97 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF66"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC66"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{11450866-B2A0-416B-A7C8-756AE5D180AE}">
-  <header guid="{4A4DA008-DBD7-45D8-8339-B15CDE66A1A5}" dateTime="2016-12-08T12:44:00.000000000Z" userName=" " r:id="rId1" minRId="1" maxRId="1" maxSheetId="2">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{BF3C4BBA-06FD-49BA-A3D5-1A8578BFD8EE}">
+  <header guid="{6531A3EE-3FB6-44F8-828B-132A54936DA6}" dateTime="2016-12-08T12:44:00.000000000Z" userName=" " r:id="rId1" minRId="1" maxRId="1" maxSheetId="2">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
-  <header guid="{FF6FB435-00CE-438E-97BD-E6E36B7F8915}" dateTime="2016-12-08T12:45:00.000000000Z" userName=" " r:id="rId2" minRId="2" maxRId="2" maxSheetId="2">
+  <header guid="{930FCC7C-B24A-49DC-90C5-C68B677984B4}" dateTime="2016-12-08T12:45:00.000000000Z" userName=" " r:id="rId2" minRId="2" maxRId="2" maxSheetId="2">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
-  <header guid="{081F3053-C711-41DC-B051-8CE8B99A9E7E}" dateTime="2016-12-08T12:47:00.000000000Z" userName=" " r:id="rId3" minRId="3" maxRId="4" maxSheetId="2">
+  <header guid="{E160A303-29FC-47B4-B854-E5FAF70DED9C}" dateTime="2016-12-08T12:47:00.000000000Z" userName=" " r:id="rId3" minRId="3" maxRId="4" maxSheetId="2">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
-  <header guid="{D985DFB2-D730-4F16-A281-11AD00F7B489}" dateTime="2016-12-08T13:19:00.000000000Z" userName=" " r:id="rId4" minRId="5" maxRId="6" maxSheetId="2">
+  <header guid="{474B964A-EE20-4287-927A-AF165B8D7058}" dateTime="2016-12-08T13:19:00.000000000Z" userName=" " r:id="rId4" minRId="5" maxRId="6" maxSheetId="2">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
-  <header guid="{11450866-B2A0-416B-A7C8-756AE5D180AE}" dateTime="2016-12-08T15:24:00.000000000Z" userName=" " r:id="rId5" minRId="7" maxRId="7" maxSheetId="2">
+  <header guid="{CC3E5F4C-47B5-4C2C-A16D-3E37858300E4}" dateTime="2016-12-08T15:24:00.000000000Z" userName=" " r:id="rId5" minRId="7" maxRId="7" maxSheetId="2">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BF3C4BBA-06FD-49BA-A3D5-1A8578BFD8EE}" dateTime="2017-01-10T16:15:00.000000000Z" userName=" " r:id="rId6" minRId="8" maxRId="8" maxSheetId="2">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -355,7 +417,6 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Адреса1</t>
         </r>
@@ -368,7 +429,6 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Адреса1g</t>
         </r>
@@ -380,21 +440,7 @@
 
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="2" ua="false" sId="1">
-    <nc r="G6" t="inlineStr">
-      <is>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">f</t>
-        </r>
-      </is>
-    </nc>
-  </rcc>
+  <rcc rId="2" ua="false" sId="1"/>
 </revisions>
 </file>
 
@@ -408,12 +454,23 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">f</t>
         </r>
       </is>
     </oc>
+    <nc r="A1" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">vcbncv</t>
+        </r>
+      </is>
+    </nc>
   </rcc>
   <rcc rId="4" ua="false" sId="1">
     <oc r="F1" t="inlineStr">
@@ -423,7 +480,6 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Адреса1g</t>
         </r>
@@ -434,9 +490,9 @@
         <r>
           <rPr>
             <sz val="11"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Адреса1</t>
         </r>
@@ -448,21 +504,7 @@
 
 <file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="5" ua="false" sId="1">
-    <nc r="B9" t="inlineStr">
-      <is>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">vcbncv</t>
-        </r>
-      </is>
-    </nc>
-  </rcc>
+  <rcc rId="5" ua="false" sId="1"/>
   <rcc rId="6" ua="false" sId="1">
     <oc r="A1" t="inlineStr">
       <is>
@@ -471,7 +513,6 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">vcbncv</t>
         </r>
@@ -483,22 +524,90 @@
 
 <file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="7" ua="false" sId="1">
-    <nc r="A9" t="inlineStr">
-      <is>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-      </is>
-    </nc>
-  </rcc>
+  <rcc rId="7" ua="false" sId="1"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rrc rId="8" ua="false" sId="1" eol="0" ref="N:N" action="deleteCol">
+    <rfmt sheetId="1" sqref="N:N"/>
+    <rcc rId="0" ua="false" sId="1">
+      <nc r="N5" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color rgb="FF000000"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t xml:space="preserve">d9c1ecee2eb94c9db24b7f7a6178ce68</t>
+          </r>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" ua="false" sId="1">
+      <nc r="N4" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color rgb="FF000000"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t xml:space="preserve">d9c1ecee2eb94c9db24b7f7a6178ce68</t>
+          </r>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" ua="false" sId="1">
+      <nc r="N3" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color rgb="FF000000"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t xml:space="preserve">d9c1ecee2eb94c9db24b7f7a6178ce68</t>
+          </r>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" ua="false" sId="1">
+      <nc r="N2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color rgb="FF000000"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t xml:space="preserve">d9c1ecee2eb94c9db24b7f7a6178ce68</t>
+          </r>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" ua="false" sId="1">
+      <nc r="N1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <sz val="11"/>
+              <color rgb="FF000000"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t xml:space="preserve">ID закупівлі внутрішнє</t>
+          </r>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
 </revisions>
 </file>
 
@@ -511,10 +620,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="1:5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -531,21 +640,22 @@
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.7125506072874"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="14.4251012145749"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="7.57085020242915"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="21.1457489878542"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="22.004048582996"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="21.1457489878542"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="22.004048582996"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="9"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1023" min="17" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="6" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -560,7 +670,7 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -569,236 +679,217 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="7" t="n">
+        <v>23045927</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="6" t="n">
-        <v>23045927</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="7" t="n">
+        <v>2472</v>
+      </c>
+      <c r="J2" s="8" t="n">
+        <v>42452</v>
+      </c>
+      <c r="K2" s="8" t="n">
+        <v>42735</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="6" t="n">
-        <v>2472</v>
-      </c>
-      <c r="J2" s="7" t="n">
-        <v>42452</v>
-      </c>
-      <c r="K2" s="7" t="n">
-        <v>42735</v>
-      </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="8" t="n">
+      <c r="O2" s="9" t="n">
         <v>14025771</v>
       </c>
-      <c r="Q2" s="8"/>
+      <c r="P2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="6" t="n">
+      <c r="A3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7" t="n">
         <v>23045927</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="H3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="7" t="n">
+        <v>2472</v>
+      </c>
+      <c r="J3" s="8" t="n">
+        <v>42452</v>
+      </c>
+      <c r="K3" s="8" t="n">
+        <v>42735</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="6" t="n">
-        <v>2472</v>
-      </c>
-      <c r="J3" s="7" t="n">
-        <v>42452</v>
-      </c>
-      <c r="K3" s="7" t="n">
-        <v>42735</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="8" t="n">
+      <c r="O3" s="9" t="n">
         <v>14025772</v>
       </c>
-      <c r="Q3" s="8"/>
+      <c r="P3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="7" t="n">
+        <v>23045927</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <v>2472</v>
+      </c>
+      <c r="J4" s="8" t="n">
+        <v>42452</v>
+      </c>
+      <c r="K4" s="8" t="n">
+        <v>42735</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="9" t="n">
+        <v>39313300</v>
+      </c>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="7" t="n">
+        <v>23045927</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="6" t="n">
-        <v>23045927</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>2472</v>
-      </c>
-      <c r="J4" s="7" t="n">
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <v>1516.62</v>
+      </c>
+      <c r="J5" s="8" t="n">
         <v>42452</v>
       </c>
-      <c r="K4" s="7" t="n">
+      <c r="K5" s="8" t="n">
         <v>42735</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="8" t="s">
+      <c r="L5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="8" t="n">
-        <v>39313300</v>
-      </c>
-      <c r="Q4" s="8"/>
-    </row>
-    <row r="5" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="6" t="n">
-        <v>23045927</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="M5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="6" t="n">
-        <v>1516.62</v>
-      </c>
-      <c r="J5" s="7" t="n">
-        <v>42452</v>
-      </c>
-      <c r="K5" s="7" t="n">
-        <v>42735</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="P5" s="8" t="n">
+      <c r="O5" s="9" t="n">
         <v>35691621</v>
       </c>
-      <c r="Q5" s="8"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="P5" s="9"/>
     </row>
   </sheetData>
   <sheetProtection sheet="true" password="fd73" objects="true" scenarios="true"/>
